--- a/Assets/DevelopAssets/Excels/EnemyConfig.xlsx
+++ b/Assets/DevelopAssets/Excels/EnemyConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>defense</t>
+  </si>
+  <si>
+    <t>moveSpeed</t>
   </si>
   <si>
     <t>number</t>
@@ -48,6 +51,9 @@
   </si>
   <si>
     <t>防御力</t>
+  </si>
+  <si>
+    <t>移速</t>
   </si>
 </sst>
 </file>
@@ -981,13 +987,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.697247706422" style="1" customWidth="1"/>
@@ -995,7 +1001,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1005,30 +1011,39 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1036,6 +1051,9 @@
         <v>1</v>
       </c>
       <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Assets/DevelopAssets/Excels/EnemyConfig.xlsx
+++ b/Assets/DevelopAssets/Excels/EnemyConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26083" windowHeight="10827"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -990,14 +990,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.697247706422" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3211009174312" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6944444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3240740740741" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/DevelopAssets/Excels/EnemyConfig.xlsx
+++ b/Assets/DevelopAssets/Excels/EnemyConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>moveSpeed</t>
+  </si>
+  <si>
+    <t>hp</t>
   </si>
   <si>
     <t>number</t>
@@ -54,6 +57,9 @@
   </si>
   <si>
     <t>移速</t>
+  </si>
+  <si>
+    <t>血量</t>
   </si>
 </sst>
 </file>
@@ -987,13 +993,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="16.6944444444444" style="1" customWidth="1"/>
@@ -1001,7 +1007,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,47 +1020,59 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D4" s="1">
         <v>0.2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
